--- a/Artifacts/FwdVarSwapRollDown.xlsx
+++ b/Artifacts/FwdVarSwapRollDown.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="0" windowWidth="28760" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="24700" windowHeight="15360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PureFwdStart" sheetId="1" r:id="rId1"/>
+    <sheet name="FwdvsRealizedBasis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Maturity</t>
   </si>
@@ -40,6 +41,18 @@
   </si>
   <si>
     <t>FwdStrikeFlat</t>
+  </si>
+  <si>
+    <t>Realized</t>
+  </si>
+  <si>
+    <t>MTM VarSwap</t>
+  </si>
+  <si>
+    <t>FwdStrike and PNL</t>
+  </si>
+  <si>
+    <t>Short Implied Spread</t>
   </si>
 </sst>
 </file>
@@ -88,8 +101,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -104,17 +121,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -171,7 +192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$1</c:f>
+              <c:f>PureFwdStart!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -185,7 +206,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$32</c:f>
+              <c:f>PureFwdStart!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -284,7 +305,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$32</c:f>
+              <c:f>PureFwdStart!$Q$3:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -388,7 +409,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>PureFwdStart!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -402,7 +423,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$32</c:f>
+              <c:f>PureFwdStart!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -501,7 +522,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$32</c:f>
+              <c:f>PureFwdStart!$K$3:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -605,7 +626,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>PureFwdStart!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,7 +640,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$32</c:f>
+              <c:f>PureFwdStart!$A$3:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -718,7 +739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$32</c:f>
+              <c:f>PureFwdStart!$E$3:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -827,11 +848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2080729256"/>
-        <c:axId val="-2080661864"/>
+        <c:axId val="-2094749576"/>
+        <c:axId val="-2094754536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2080729256"/>
+        <c:axId val="-2094749576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080661864"/>
+        <c:crossAx val="-2094754536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080661864"/>
+        <c:axId val="-2094754536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,13 +881,204 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080729256"/>
+        <c:crossAx val="-2094749576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>FwdvsRealizedBasis!$H$3:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.526076666666694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.211279999999976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.056070000000181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.060906666666813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.226250000000144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.55256000000018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.04029666666702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.6899200000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.50189000000052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.47666666666733</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.61471000000073</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.91648000000081</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.38243666666765</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.01304000000096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.8087500000012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.77002666666801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.89733000000157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.19112000000164</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.65185666666849</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.28000000000194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.07601000000221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71.04034666666908</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.17347000000268</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81.47584000000283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86.94791666666968</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.5901600000032</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.40303000000353</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>104.3869866666704</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110.542490000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116.8700000000043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2097068360"/>
+        <c:axId val="-2097148760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2097068360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2097148760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2097148760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2097068360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -900,6 +1112,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1241,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3082,6 +3329,1098 @@
       <c r="Q32">
         <f t="shared" si="10"/>
         <v>19.062499999999034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <f>(1/(B2-A2))*(C2^2*B2-A2*D2^2)</f>
+        <v>476</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <f>A2-1</f>
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <f>B2-1</f>
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <f>C2-0.01</f>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D3">
+        <f>D2-0.01</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E3">
+        <f>(1/(B3-A3))*(C3^2*B3-A3*D3^2)-$E$2</f>
+        <v>-2.9719000000000619</v>
+      </c>
+      <c r="F3">
+        <f>F2+0.05</f>
+        <v>17.05</v>
+      </c>
+      <c r="G3">
+        <f>(F3*F3-D3*D3)*($A$2-A3)/$A$2 +A3/$A$2*(D3*D3-$D$2*$D$2)</f>
+        <v>-1.4458233333333681</v>
+      </c>
+      <c r="H3">
+        <f>G3-E3</f>
+        <v>1.5260766666666938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <f t="shared" ref="A4:B19" si="0">A3-1</f>
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C32" si="1">C3-0.01</f>
+        <v>19.979999999999997</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D32" si="2">D3-0.01</f>
+        <v>17.979999999999997</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E32" si="3">(1/(B4-A4))*(C4^2*B4-A4*D4^2)-$E$2</f>
+        <v>-5.9409333333334189</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F32" si="4">F3+0.05</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G32" si="5">(F4*F4-D4*D4)*($A$2-A4)/$A$2 +A4/$A$2*(D4*D4-$D$2*$D$2)</f>
+        <v>-2.7296533333334425</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H32" si="6">G4-E4</f>
+        <v>3.2112799999999764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>19.969999999999995</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>17.969999999999995</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>-8.9071000000002982</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>17.150000000000002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>-3.851030000000117</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>5.0560700000001813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>19.959999999999994</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>17.959999999999994</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>-11.870400000000302</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>-4.8094933333334895</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>7.0609066666668125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>19.949999999999992</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>17.949999999999992</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>-14.830833333333658</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>17.250000000000004</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>-5.6045833333335136</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>9.2262500000001442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>19.939999999999991</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>17.939999999999991</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>-17.788400000000365</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>17.300000000000004</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>-6.2358400000001897</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>11.552560000000176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>19.929999999999989</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>17.929999999999989</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>-20.743100000000538</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>17.350000000000005</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>-6.7028033333335202</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>14.040296666667018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>19.919999999999987</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>17.919999999999987</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>-23.694933333333893</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>-7.0050133333334923</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>16.689920000000399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>19.909999999999986</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>17.909999999999986</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>-26.643900000000656</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>17.450000000000006</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>-7.1420100000001359</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>19.501890000000522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>19.899999999999984</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>17.899999999999984</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>-29.590000000000771</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>17.500000000000007</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>-7.1133333333334381</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>22.476666666667334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>19.889999999999983</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>17.889999999999983</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>-32.533233333334124</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>17.550000000000008</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>-6.9185233333333969</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>25.614710000000727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>19.879999999999981</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>17.879999999999981</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>-35.473600000000829</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>17.600000000000009</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>-6.5571200000000207</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>28.91648000000081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>19.86999999999998</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>17.86999999999998</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>-38.411100000000943</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>17.650000000000009</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>-6.0286633333332915</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>32.382436666667651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>19.859999999999978</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>17.859999999999978</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>-41.345733333334181</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>17.70000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>-5.3326933333332178</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>36.013040000000963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>19.849999999999977</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>17.849999999999977</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>-44.277500000000998</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>17.750000000000011</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>-4.468749999999801</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>39.808750000001197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>19.839999999999975</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>17.839999999999975</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>-47.206400000001054</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>17.800000000000011</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>-3.436373333333044</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>43.770026666668009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>19.829999999999973</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>17.829999999999973</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>-50.132433333334518</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>17.850000000000012</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>-2.235103333332948</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>47.897330000001567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f t="shared" ref="A20:B32" si="7">A19-1</f>
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>19.819999999999972</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>17.819999999999972</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>-53.055600000001164</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>17.900000000000013</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>-0.86447999999951453</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>52.191120000001646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>19.80999999999997</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>17.80999999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>-55.975900000001218</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>17.950000000000014</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>0.67595666666726961</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>56.651856666668486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>19.799999999999969</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>17.799999999999969</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>-58.893333333334567</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>18.000000000000014</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>2.3866666666673759</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>61.280000000001941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>19.789999999999967</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>17.789999999999967</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>-61.807900000001382</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>18.050000000000015</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>4.2681100000008367</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>66.076010000002213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>19.779999999999966</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>17.779999999999966</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>-64.719600000001435</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>18.100000000000016</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>6.3207466666676506</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>71.04034666666908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>19.769999999999964</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>17.769999999999964</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>-67.628433333334897</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>18.150000000000016</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>8.5450366666677837</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>76.173470000002681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>19.759999999999962</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>17.759999999999962</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>-70.53440000000154</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>18.200000000000017</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>10.941440000001295</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>81.475840000002833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>19.749999999999961</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>17.749999999999961</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>-73.437500000001592</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>18.250000000000018</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>13.510416666668096</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>86.947916666669684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>19.739999999999959</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>17.739999999999959</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>-76.337733333334882</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>18.300000000000018</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>16.25242666666832</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>92.590160000003209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>19.729999999999958</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>17.729999999999958</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>-79.235100000001694</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>18.350000000000019</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>19.167930000001835</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>98.403030000003525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>19.719999999999956</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>17.719999999999956</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>-82.129600000001744</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>18.40000000000002</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>22.257386666668687</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>104.38698666667042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>19.709999999999955</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>17.709999999999955</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>-85.02123333333509</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>18.450000000000021</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>25.521256666668918</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>110.54249000000401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>19.699999999999953</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>17.699999999999953</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>-87.910000000001844</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>18.500000000000021</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>28.960000000002481</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>116.87000000000432</v>
       </c>
     </row>
   </sheetData>

--- a/Artifacts/FwdVarSwapRollDown.xlsx
+++ b/Artifacts/FwdVarSwapRollDown.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24700" windowHeight="15360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7260" yWindow="0" windowWidth="24980" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PureFwdStart" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -848,11 +847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094749576"/>
-        <c:axId val="-2094754536"/>
+        <c:axId val="-2089845864"/>
+        <c:axId val="-2030130744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094749576"/>
+        <c:axId val="-2089845864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094754536"/>
+        <c:crossAx val="-2030130744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094754536"/>
+        <c:axId val="-2030130744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,14 +880,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094749576"/>
+        <c:crossAx val="-2089845864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1040,11 +1038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2097068360"/>
-        <c:axId val="-2097148760"/>
+        <c:axId val="-2043448520"/>
+        <c:axId val="-2115000184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2097068360"/>
+        <c:axId val="-2043448520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097148760"/>
+        <c:crossAx val="-2115000184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097148760"/>
+        <c:axId val="-2115000184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097068360"/>
+        <c:crossAx val="-2043448520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3348,7 +3346,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F32"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
